--- a/Choreo.xlsx
+++ b/Choreo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vallabhramakanth/choreo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDC38E9-BFC7-F746-97C4-31949472CE00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610EBE5D-6BF8-5D4C-84C0-71BE8E67730E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1159,7 +1159,7 @@
     <t>chair</t>
   </si>
   <si>
-    <t>rol_num</t>
+    <t>roll_num</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1420,7 @@
   <dimension ref="A1:D189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Choreo.xlsx
+++ b/Choreo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vallabhramakanth/choreo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380B8F25-F3B9-AE41-B106-418C980346DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80929F7C-84DC-034A-8183-2AC20BD7167F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,12 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Shobhit Gupta</t>
+  </si>
+  <si>
+    <t>OE18M022</t>
+  </si>
   <si>
     <t>name</t>
   </si>
@@ -36,18 +42,12 @@
   <si>
     <t>fan_pass</t>
   </si>
-  <si>
-    <t>Avinash</t>
-  </si>
-  <si>
-    <t>ME19B006</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -56,16 +56,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -80,15 +71,11 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,12 +84,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -118,13 +118,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,225 +347,256 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="9"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="6:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="F49" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
